--- a/app/utils/excel-parser-scripts/holidays/holidays.xlsx
+++ b/app/utils/excel-parser-scripts/holidays/holidays.xlsx
@@ -376,7 +376,11 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
